--- a/[4]bodyhealth/妹妹的小日子.xlsx
+++ b/[4]bodyhealth/妹妹的小日子.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell_kevin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell_kevin\Documents\GitHub\python_learning\[4]bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89403EE1-C120-496F-A176-627CD1FEA3C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F94F81A-432F-4915-9465-82AE2B7D1DFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="2025" windowWidth="10890" windowHeight="11385" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,14 @@
   </si>
   <si>
     <t>2018.12.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -722,6 +730,16 @@
         <v>29</v>
       </c>
     </row>
+    <row r="31" spans="1:1" ht="16.5">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16.5">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
